--- a/libro_de_campo.xlsx
+++ b/libro_de_campo.xlsx
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -247,6 +247,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,7 +882,7 @@
         <v>25.0</v>
       </c>
       <c r="D2" s="11">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E2" s="11">
         <v>0.0</v>
@@ -913,7 +916,7 @@
         <v>25.0</v>
       </c>
       <c r="D3" s="11">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E3" s="11">
         <v>0.0</v>
@@ -947,7 +950,7 @@
         <v>25.0</v>
       </c>
       <c r="D4" s="11">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E4" s="11">
         <v>0.0</v>
@@ -980,8 +983,8 @@
       <c r="C5" s="12">
         <v>25.0</v>
       </c>
-      <c r="D5" s="12">
-        <v>25.0</v>
+      <c r="D5" s="11">
+        <v>30.0</v>
       </c>
       <c r="E5" s="12">
         <v>0.0</v>
@@ -1015,7 +1018,7 @@
         <v>25.0</v>
       </c>
       <c r="D6" s="11">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E6" s="11">
         <v>0.0</v>
@@ -1049,7 +1052,7 @@
         <v>25.0</v>
       </c>
       <c r="D7" s="11">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E7" s="11">
         <v>0.0</v>
@@ -1083,7 +1086,7 @@
         <v>25.0</v>
       </c>
       <c r="D8" s="11">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E8" s="11">
         <v>0.0</v>
@@ -1116,8 +1119,8 @@
       <c r="C9" s="12">
         <v>25.0</v>
       </c>
-      <c r="D9" s="12">
-        <v>25.0</v>
+      <c r="D9" s="11">
+        <v>30.0</v>
       </c>
       <c r="E9" s="12">
         <v>0.0</v>
@@ -1151,7 +1154,7 @@
         <v>25.0</v>
       </c>
       <c r="D10" s="11">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E10" s="11">
         <v>0.0</v>
@@ -1185,7 +1188,7 @@
         <v>25.0</v>
       </c>
       <c r="D11" s="11">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E11" s="11">
         <v>0.0</v>
@@ -1219,7 +1222,7 @@
         <v>25.0</v>
       </c>
       <c r="D12" s="11">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E12" s="11">
         <v>0.0</v>
@@ -1253,7 +1256,7 @@
         <v>25.0</v>
       </c>
       <c r="D13" s="11">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E13" s="11">
         <v>0.0</v>
@@ -1459,8 +1462,8 @@
       <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12">
-        <v>25.0</v>
+      <c r="C2" s="17">
+        <v>30.0</v>
       </c>
       <c r="D2" s="12">
         <v>0.0</v>
@@ -1488,8 +1491,8 @@
       <c r="B3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12">
-        <v>25.0</v>
+      <c r="C3" s="17">
+        <v>30.0</v>
       </c>
       <c r="D3" s="12">
         <v>0.0</v>
@@ -1517,8 +1520,8 @@
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12">
-        <v>25.0</v>
+      <c r="C4" s="17">
+        <v>30.0</v>
       </c>
       <c r="D4" s="12">
         <v>0.0</v>
@@ -1546,8 +1549,8 @@
       <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12">
-        <v>25.0</v>
+      <c r="C5" s="17">
+        <v>30.0</v>
       </c>
       <c r="D5" s="12">
         <v>0.0</v>
@@ -1575,8 +1578,8 @@
       <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="12">
-        <v>25.0</v>
+      <c r="C6" s="17">
+        <v>30.0</v>
       </c>
       <c r="D6" s="12">
         <v>0.0</v>
@@ -1604,8 +1607,8 @@
       <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12">
-        <v>25.0</v>
+      <c r="C7" s="17">
+        <v>30.0</v>
       </c>
       <c r="D7" s="12">
         <v>0.0</v>
@@ -1633,8 +1636,8 @@
       <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="12">
-        <v>25.0</v>
+      <c r="C8" s="17">
+        <v>30.0</v>
       </c>
       <c r="D8" s="12">
         <v>0.0</v>
@@ -1662,8 +1665,8 @@
       <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12">
-        <v>25.0</v>
+      <c r="C9" s="17">
+        <v>30.0</v>
       </c>
       <c r="D9" s="12">
         <v>0.0</v>
@@ -1691,8 +1694,8 @@
       <c r="B10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12">
-        <v>25.0</v>
+      <c r="C10" s="17">
+        <v>30.0</v>
       </c>
       <c r="D10" s="12">
         <v>0.0</v>
@@ -1720,8 +1723,8 @@
       <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12">
-        <v>25.0</v>
+      <c r="C11" s="17">
+        <v>30.0</v>
       </c>
       <c r="D11" s="12">
         <v>0.0</v>
@@ -1749,8 +1752,8 @@
       <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12">
-        <v>25.0</v>
+      <c r="C12" s="17">
+        <v>30.0</v>
       </c>
       <c r="D12" s="12">
         <v>0.0</v>
@@ -1778,8 +1781,8 @@
       <c r="B13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="12">
-        <v>25.0</v>
+      <c r="C13" s="17">
+        <v>30.0</v>
       </c>
       <c r="D13" s="12">
         <v>0.0</v>
